--- a/Jhipster Struct.xlsx
+++ b/Jhipster Struct.xlsx
@@ -1,56 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datnt\Documents\JhipsterStruct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6DD7889D-2F1A-4100-A9CC-3556233CCAD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19890" windowHeight="8505" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structs" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="5" r:id="rId2"/>
-    <sheet name="Domain" sheetId="2" r:id="rId3"/>
-    <sheet name="Exception" sheetId="3" r:id="rId4"/>
-    <sheet name="Responses" sheetId="4" r:id="rId5"/>
+    <sheet name="Exception" sheetId="3" r:id="rId2"/>
+    <sheet name="Responses" sheetId="4" r:id="rId3"/>
+    <sheet name="Config" sheetId="5" r:id="rId4"/>
+    <sheet name="Domain" sheetId="2" r:id="rId5"/>
+    <sheet name="Repository" sheetId="6" r:id="rId6"/>
+    <sheet name="Security" sheetId="7" r:id="rId7"/>
+    <sheet name="RestController &amp; Controller " sheetId="8" r:id="rId8"/>
+    <sheet name="Những thay đổi" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>EXCEPTION</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Internal Server Exception</t>
+  </si>
+  <si>
+    <t>Message code</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Type code</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Status code</t>
+  </si>
+  <si>
+    <t>E_MSG_001</t>
+  </si>
+  <si>
+    <t>E_TYPE_001</t>
+  </si>
+  <si>
+    <t>Bad request</t>
   </si>
   <si>
     <t>Insert database exception</t>
   </si>
   <si>
+    <t>E_TYPE_007</t>
+  </si>
+  <si>
+    <t>E_MSG_002</t>
+  </si>
+  <si>
+    <t>E_TYPE_002</t>
+  </si>
+  <si>
+    <t>Field errors</t>
+  </si>
+  <si>
     <t>Update database exception</t>
+  </si>
+  <si>
+    <t>E_MSG_003</t>
+  </si>
+  <si>
+    <t>E_TYPE_003</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
   </si>
   <si>
     <t>Delete database exception</t>
   </si>
   <si>
+    <t>E_MSG_004</t>
+  </si>
+  <si>
+    <t>E_TYPE_004</t>
+  </si>
+  <si>
+    <t>Bad credentials</t>
+  </si>
+  <si>
     <t>Select database exception</t>
   </si>
   <si>
-    <t>Internal Server Exception</t>
+    <t>E_MSG_005</t>
   </si>
   <si>
-    <t>No</t>
+    <t>E_TYPE_005</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Null pointer exception</t>
+  </si>
+  <si>
+    <t>E_MSG_006</t>
+  </si>
+  <si>
+    <t>E_TYPE_006</t>
+  </si>
+  <si>
+    <t>Method Not Allowed</t>
   </si>
   <si>
     <t>Web Exception</t>
+  </si>
+  <si>
+    <t>E_MSG_007</t>
+  </si>
+  <si>
+    <t>URL not found exception</t>
   </si>
   <si>
     <t>Method not support exception</t>
@@ -62,124 +150,61 @@
     <t>Authentication exception</t>
   </si>
   <si>
+    <t>Unauthorized exception</t>
+  </si>
+  <si>
     <t>Client Request Exception</t>
+  </si>
+  <si>
+    <t>Select element not exist exception</t>
+  </si>
+  <si>
+    <t>Update element not exist exception</t>
   </si>
   <si>
     <t>Insert duplicate element exception</t>
   </si>
   <si>
-    <t>Update element not exist exception</t>
-  </si>
-  <si>
     <t>Delete element not exist exception</t>
   </si>
   <si>
-    <t>Select element not exist exception</t>
+    <t>﻿</t>
   </si>
   <si>
-    <t>Null pointer exception</t>
+    <t>Success Reponse</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Errors Reponse</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Message code</t>
-  </si>
-  <si>
-    <t>URL not found exception</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Method Not Allowed</t>
-  </si>
-  <si>
-    <t>Bad credentials</t>
-  </si>
-  <si>
-    <t>Status code</t>
-  </si>
-  <si>
-    <t>Field errors</t>
-  </si>
-  <si>
-    <t>Unauthorized exception</t>
-  </si>
-  <si>
-    <t>Unauthorized</t>
-  </si>
-  <si>
-    <t>Bad request</t>
-  </si>
-  <si>
-    <t>EXCEPTION</t>
-  </si>
-  <si>
-    <t>MESSAGE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>Type code</t>
-  </si>
-  <si>
-    <t>E_TYPE_001</t>
-  </si>
-  <si>
-    <t>E_TYPE_002</t>
-  </si>
-  <si>
-    <t>E_TYPE_003</t>
-  </si>
-  <si>
-    <t>E_TYPE_004</t>
-  </si>
-  <si>
-    <t>E_TYPE_005</t>
-  </si>
-  <si>
-    <t>E_TYPE_006</t>
-  </si>
-  <si>
-    <t>E_TYPE_007</t>
-  </si>
-  <si>
-    <t>E_MSG_001</t>
-  </si>
-  <si>
-    <t>E_MSG_002</t>
-  </si>
-  <si>
-    <t>E_MSG_003</t>
-  </si>
-  <si>
-    <t>E_MSG_004</t>
-  </si>
-  <si>
-    <t>E_MSG_005</t>
-  </si>
-  <si>
-    <t>E_MSG_006</t>
-  </si>
-  <si>
-    <t>E_MSG_007</t>
+    <t>Field Errors Response</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Header</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tham khảo sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Exception</t>
+    </r>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Object</t>
+    <t>Header</t>
   </si>
   <si>
     <t>Key</t>
@@ -188,25 +213,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Success Reponse</t>
+    <t>Body</t>
   </si>
   <si>
-    <t>Errors Reponse</t>
+    <t>_results</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tham khảo sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Exception</t>
-    </r>
+    <t>Object</t>
   </si>
   <si>
     <t>_status</t>
@@ -224,9 +237,6 @@
     <t>_message</t>
   </si>
   <si>
-    <t>Field Errors Response</t>
-  </si>
-  <si>
     <t>_fieldErrors</t>
   </si>
   <si>
@@ -239,82 +249,348 @@
     <t xml:space="preserve">        _message</t>
   </si>
   <si>
-    <t>_results</t>
-  </si>
-  <si>
     <t>DatabaseConfiguration</t>
   </si>
   <si>
     <t>SecurityConfiguration</t>
   </si>
+  <si>
+    <t>Native Query và Result Set Mapping</t>
+  </si>
+  <si>
+    <t>JWTConfigurer class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được sử dụng trong SecurityConfiguration class </t>
+  </si>
+  <si>
+    <t>JWTFilter class</t>
+  </si>
+  <si>
+    <t>TokenProvider class</t>
+  </si>
+  <si>
+    <t>DomainUserDetailsService class</t>
+  </si>
+  <si>
+    <t>UserJWTController class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestController </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller Advice  </t>
+  </si>
+  <si>
+    <t>Thêm package Common để chứa các Contant, Util, Validation tránh làm ảnh hưởng đến cấu trúc project</t>
+  </si>
+  <si>
+    <t>Thêm getValidator Bean để có thể sử dụng MessageSource cho custom Validation annotation</t>
+  </si>
+  <si>
+    <t>Phần thêm mới được định nghĩa trong LocaleConfiguration class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom lại ErrorAttribute để set lại body cho lỗi 404 </t>
+  </si>
+  <si>
+    <t>Theo mặc định lỗi 404 url not found sẽ không được custom handle. Cho nên để thay đổi body thì chúng ta sẽ custom lại ErrorAttribute.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Triển khai tại ErrorAttributeConfiguration class được đặt trong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">config </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>package.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở đây body được custom theo dạng: </t>
+  </si>
+  <si>
+    <t>Override lại các handle exception method trong ExceptionTranslator class để phù hợp với response body được đặt ra hơn.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -324,13 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,24 +612,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -369,29 +825,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -399,157 +881,413 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -563,21 +1301,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="Flowchart: Document 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="123" name="Flowchart: Document 122"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2676523" y="1152525"/>
-          <a:ext cx="800101" cy="352425"/>
+          <a:off x="2969260" y="981075"/>
+          <a:ext cx="920750" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -622,12 +1354,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>java</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -646,21 +1384,15 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="Flowchart: Document 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="124" name="Flowchart: Document 123"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="10772775"/>
-          <a:ext cx="876300" cy="352425"/>
+          <a:off x="2779395" y="9172575"/>
+          <a:ext cx="996950" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -705,12 +1437,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>resources</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -729,21 +1467,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Flowchart: Document 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="125" name="Flowchart: Document 124"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476623" y="1685925"/>
-          <a:ext cx="800101" cy="352425"/>
+          <a:off x="3890010" y="1457325"/>
+          <a:ext cx="974090" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -788,12 +1520,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>aop</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -812,21 +1550,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="Flowchart: Document 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="126" name="Flowchart: Document 125"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476623" y="2190750"/>
-          <a:ext cx="800101" cy="352425"/>
+          <a:off x="3890010" y="1876425"/>
+          <a:ext cx="974090" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -871,12 +1603,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>common</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -895,21 +1633,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="Flowchart: Document 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="127" name="Flowchart: Document 126"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3467098" y="2905125"/>
-          <a:ext cx="800101" cy="352425"/>
+          <a:off x="3880485" y="2476500"/>
+          <a:ext cx="974090" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -954,12 +1686,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>config</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -978,21 +1716,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="Flowchart: Document 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="128" name="Flowchart: Document 127"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457573" y="4133850"/>
-          <a:ext cx="800101" cy="352425"/>
+          <a:off x="3870960" y="3533775"/>
+          <a:ext cx="974090" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1037,12 +1769,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>domain</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1061,21 +1799,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="Flowchart: Document 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="129" name="Flowchart: Document 128"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448047" y="4914900"/>
-          <a:ext cx="981077" cy="352425"/>
+          <a:off x="3861435" y="4200525"/>
+          <a:ext cx="1155065" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1120,12 +1852,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>repository</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1144,21 +1882,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="Flowchart: Document 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="130" name="Flowchart: Document 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448048" y="6238875"/>
-          <a:ext cx="800102" cy="352425"/>
+          <a:off x="3861435" y="5324475"/>
+          <a:ext cx="974725" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1203,12 +1935,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>security</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1227,21 +1965,15 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="Flowchart: Document 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="131" name="Flowchart: Document 130"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448048" y="8277225"/>
-          <a:ext cx="800102" cy="352425"/>
+          <a:off x="3861435" y="7048500"/>
+          <a:ext cx="974725" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1286,12 +2018,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>service</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1310,21 +2048,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="Flowchart: Document 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="132" name="Flowchart: Document 131"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3428998" y="9382125"/>
-          <a:ext cx="800102" cy="352425"/>
+          <a:off x="3842385" y="7981950"/>
+          <a:ext cx="974725" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1369,12 +2101,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>web</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1393,21 +2131,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="TextBox 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="133" name="TextBox 132"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533898" y="4133852"/>
-          <a:ext cx="3248025" cy="447675"/>
+          <a:off x="5121275" y="3533775"/>
+          <a:ext cx="3683000" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,14 +2177,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Package chứa các class JavaBean được dùng để ánh xạ các bảng trong database thành những Java Object</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1472,21 +2204,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66677</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="TextBox 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="134" name="TextBox 133"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533898" y="2905127"/>
-          <a:ext cx="3248025" cy="971550"/>
+          <a:off x="5121275" y="2476500"/>
+          <a:ext cx="3683000" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,63 +2250,67 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Package chứa các class </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>config hệ thống chung </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>như Database, Security, Web, Locale hoặc các class properties</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Thông tin config sẽ được nói rõ hơn tại sheet </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Config</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1600,21 +2330,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="TextBox 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="135" name="TextBox 134"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4543423" y="2190752"/>
-          <a:ext cx="3248025" cy="447675"/>
+          <a:off x="5130800" y="1876425"/>
+          <a:ext cx="3769995" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,35 +2376,35 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Package chứa các class </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>constants,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> enum </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>và các class util được sử dụng trong hệ thống.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1700,21 +2424,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="TextBox 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="136" name="TextBox 135"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533898" y="4914902"/>
-          <a:ext cx="3248025" cy="1085850"/>
+          <a:off x="5121275" y="4200525"/>
+          <a:ext cx="3683000" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1752,77 +2470,81 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Theo mặc định jhipster sẽ sử dụng spring data jpa nên package này sẽ chứa những interface</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>với chức năng là một DAO</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> và </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>được extend interface </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>JpaRepository.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Cách triển khai sẽ được nói rõ hơn tại sheet </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Repository</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1842,21 +2564,15 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="TextBox 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="137" name="TextBox 136"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524373" y="6238876"/>
-          <a:ext cx="3248025" cy="1857375"/>
+          <a:off x="5111750" y="5324475"/>
+          <a:ext cx="3683000" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,52 +2610,56 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Chứa các class cấu hình, thiết lập cơ chế bảo mật cho việc xác thực và phân quyền user cho hệ thống, jhipster cung cấp các cơ chế bảo mật như: </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:sym typeface="Wingdings"/>
             </a:rPr>
             <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1" i="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>JSON Web Tokens (JWT)</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -1989,11 +2709,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1" i="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Session-base authentication</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2043,11 +2767,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1" i="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>OAuth2 and OpenID Connect</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2097,40 +2825,40 @@
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1" i="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Jhipster User Account and Authentication (UAA)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" i="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Cách triển khai sẽ được nói rõ hơn tại sheet </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Security Mechanisms</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2150,21 +2878,15 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="TextBox 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="138" name="TextBox 137"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4514848" y="8277227"/>
-          <a:ext cx="3248025" cy="857250"/>
+          <a:off x="5102225" y="7048500"/>
+          <a:ext cx="3683000" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2202,87 +2924,42 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Chứa các class </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>DTO</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Service interface </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>và các class implement tương ứng cho các interface Service.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Cách triển khai sẽ được nói rõ hơn ở sheet </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Service</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:latin typeface="+mj-lt"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2302,21 +2979,15 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="TextBox 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="139" name="TextBox 138"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505323" y="9382126"/>
-          <a:ext cx="3248025" cy="1085851"/>
+          <a:off x="5092700" y="7981950"/>
+          <a:ext cx="3683000" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2354,74 +3025,74 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Chứa các class </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Controller</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> của hệ thống và </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Controller Advice</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> để handle các exception được ném ra từ các controller.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Cách triển khai sẽ được nói rõ hơn ở sheet </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>RestController &amp; Controller Advice.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2441,21 +3112,15 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="Flowchart: Document 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="140" name="Flowchart: Document 139"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324224" y="12487277"/>
-          <a:ext cx="800102" cy="352425"/>
+          <a:off x="3737610" y="10629900"/>
+          <a:ext cx="974725" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2500,12 +3165,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>i18n</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2524,21 +3195,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="Flowchart: Document 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="141" name="Flowchart: Document 140"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343274" y="11268077"/>
-          <a:ext cx="800102" cy="352425"/>
+          <a:off x="3756660" y="9582150"/>
+          <a:ext cx="974725" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2583,12 +3248,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>config</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2607,21 +3278,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="Flowchart: Document 141">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="142" name="Flowchart: Document 141"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314699" y="13792202"/>
-          <a:ext cx="800102" cy="352425"/>
+          <a:off x="3728085" y="11734800"/>
+          <a:ext cx="887730" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2666,12 +3331,18 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>sql</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2690,21 +3361,15 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="TextBox 142">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="143" name="TextBox 142"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486273" y="11268077"/>
-          <a:ext cx="3248025" cy="942976"/>
+          <a:off x="5073650" y="9582150"/>
+          <a:ext cx="3683000" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2742,68 +3407,80 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Chứa các file config web application (.yml)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>như</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>application.yml</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>application-dev.yml</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>application-prod.yml</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:latin typeface="+mj-lt"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2823,21 +3500,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="TextBox 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="144" name="TextBox 143"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4476748" y="12487276"/>
-          <a:ext cx="3248025" cy="1114425"/>
+          <a:off x="5064125" y="10629900"/>
+          <a:ext cx="3683000" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2875,51 +3546,59 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Chứa các file message.properties tương ứng cho từng locale khác nhau như:</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>message.properties</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>message_en.properties</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>message_jp.properties</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:latin typeface="+mj-lt"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2939,21 +3618,15 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="TextBox 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="145" name="TextBox 144"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467223" y="13792201"/>
-          <a:ext cx="3248025" cy="1114425"/>
+          <a:off x="5054600" y="11734800"/>
+          <a:ext cx="3683000" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2991,36 +3664,40 @@
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Chứa các file xml định nghĩa cho các native query được sử dụng cho hệ thống.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100">
-            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="vi-VN" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Cách triển khai sẽ được nói rõ hơn tại sheet </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Repository</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:latin typeface="+mj-lt"/>
-            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3040,23 +3717,17 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>15879</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="Straight Connector 145">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="146" name="Straight Connector 145"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="123" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-950659" y="5507296"/>
-          <a:ext cx="8059229" cy="7938"/>
+          <a:off x="77470" y="4692650"/>
+          <a:ext cx="6830695" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3097,23 +3768,17 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>149226</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="Straight Connector 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="147" name="Straight Connector 146"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="125" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3070225" y="1862137"/>
-          <a:ext cx="406399" cy="1589"/>
+          <a:off x="3484245" y="1604645"/>
+          <a:ext cx="405765" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3154,21 +3819,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>60326</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="Straight Connector 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="148" name="Straight Connector 147"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3070225" y="2344737"/>
-          <a:ext cx="406399" cy="1589"/>
+          <a:off x="3484245" y="2001520"/>
+          <a:ext cx="405765" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3209,21 +3868,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="149" name="Straight Connector 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="149" name="Straight Connector 148"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3070225" y="3055937"/>
-          <a:ext cx="406399" cy="1589"/>
+          <a:off x="3484245" y="2598420"/>
+          <a:ext cx="405765" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3264,21 +3917,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="Straight Connector 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="150" name="Straight Connector 149"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3063875" y="4294187"/>
-          <a:ext cx="406399" cy="1589"/>
+          <a:off x="3477895" y="3665220"/>
+          <a:ext cx="405765" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3319,21 +3966,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>136526</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="Straight Connector 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="151" name="Straight Connector 150"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3063875" y="5087937"/>
-          <a:ext cx="406399" cy="1589"/>
+          <a:off x="3477895" y="4344670"/>
+          <a:ext cx="405765" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3374,21 +4015,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>130177</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="152" name="Straight Connector 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="152" name="Straight Connector 151"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3076575" y="6415087"/>
-          <a:ext cx="361951" cy="1590"/>
+          <a:off x="3490595" y="5471795"/>
+          <a:ext cx="361950" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3429,21 +4064,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>41277</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="Straight Connector 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="153" name="Straight Connector 152"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3089275" y="8421687"/>
-          <a:ext cx="361951" cy="1590"/>
+          <a:off x="3503295" y="7164070"/>
+          <a:ext cx="361950" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3484,21 +4113,15 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="154" name="Straight Connector 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="154" name="Straight Connector 153"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3076575" y="9532937"/>
-          <a:ext cx="361951" cy="1590"/>
+          <a:off x="3490595" y="8103870"/>
+          <a:ext cx="361950" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3539,23 +4162,17 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="Straight Connector 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="155" name="Straight Connector 154"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="124" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1474249" y="12542301"/>
-          <a:ext cx="2890326" cy="9526"/>
+          <a:off x="2102485" y="10670540"/>
+          <a:ext cx="2461260" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3596,23 +4213,17 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="Straight Connector 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="156" name="Straight Connector 155"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2920999" y="11444289"/>
-          <a:ext cx="422275" cy="1587"/>
+          <a:off x="3334385" y="9729470"/>
+          <a:ext cx="422275" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3653,21 +4264,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="Straight Connector 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="157" name="Straight Connector 156"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2908299" y="12657139"/>
-          <a:ext cx="422275" cy="1587"/>
+          <a:off x="3321685" y="10770870"/>
+          <a:ext cx="422275" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3698,31 +4303,359 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>844549</xdr:colOff>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>77789</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>418465</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="Straight Connector 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="158" name="Straight Connector 157"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2901949" y="13984289"/>
-          <a:ext cx="422275" cy="1587"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3312795" y="11896725"/>
+          <a:ext cx="424815" cy="1270"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>766445</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Document 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238885" y="495300"/>
+          <a:ext cx="920750" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="212121"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>web app </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="212121"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1697990" y="788670"/>
+          <a:ext cx="1905" cy="8555355"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1697990" y="9320530"/>
+          <a:ext cx="1081405" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>618490</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1697990" y="1100455"/>
+          <a:ext cx="1271270" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3754,7 +4687,53 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3656965" y="4000500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3768,21 +4747,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Hộp Văn bản 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBA887C-C367-488B-B396-56E2414D5260}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Hộp Văn bản 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190501"/>
-          <a:ext cx="6610350" cy="990600"/>
+          <a:off x="696595" y="161925"/>
+          <a:ext cx="7480300" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3837,14 +4810,18 @@
             </a:rPr>
             <a:t>config.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3866,6 +4843,10 @@
             </a:rPr>
             <a:t>DatabaseConfiguration, LocaleConfiguration, SecurityConfiguration và WebConfiguration.</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
@@ -3898,27 +4879,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Hình ảnh 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137D3305-A52E-4E8A-9E4A-7CD0828160A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Hình ảnh 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="1847850"/>
-          <a:ext cx="4561905" cy="971429"/>
+          <a:off x="581025" y="1590675"/>
+          <a:ext cx="5257800" cy="828040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3940,21 +4915,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Hộp Văn bản 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9491C5EC-3E7C-4037-A93F-A983B64D4B14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Hộp Văn bản 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="2838450"/>
-          <a:ext cx="6591300" cy="1552576"/>
+          <a:off x="706120" y="2428875"/>
+          <a:ext cx="7533005" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4002,14 +4971,18 @@
             </a:rPr>
             <a:t> thiết lập cần phải có:</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4024,14 +4997,18 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4046,6 +5023,10 @@
             </a:rPr>
             <a:t> dùng để tự động xác định các class Repository (DAO)   cho Spring Data Repository</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
@@ -4098,27 +5079,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Hình ảnh 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4783E3F8-B361-457A-AC8B-F5A7001CD597}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Hình ảnh 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="5143500"/>
-          <a:ext cx="5876190" cy="3666667"/>
+          <a:off x="696595" y="4371975"/>
+          <a:ext cx="6658610" cy="3123565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4140,21 +5115,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Hộp Văn bản 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4084051D-36DF-4579-A634-0E1AC0A4D9E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Hộp Văn bản 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="8791576"/>
-          <a:ext cx="5819775" cy="495300"/>
+          <a:off x="744220" y="7477125"/>
+          <a:ext cx="6602730" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4246,6 +5215,14 @@
             </a:rPr>
             <a:t>của class SecurityConfiguration</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
@@ -4260,8 +5237,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4275,21 +5252,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="457198"/>
-          <a:ext cx="5476875" cy="3981452"/>
+          <a:off x="648335" y="399415"/>
+          <a:ext cx="6250940" cy="3382010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4331,13 +5302,16 @@
             </a:rPr>
             <a:t>Các class domain (entity) đại diện cho mỗi table trong database.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100">
             <a:latin typeface="+mj-lt"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="vi-VN" sz="1100">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100">
               <a:latin typeface="+mj-lt"/>
@@ -4356,6 +5330,9 @@
             </a:rPr>
             <a:t> trong database tương ứng sẽ có 2 cách là định nghĩa trong một file xml hoặc sử dụng annotation.</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100">
@@ -4431,13 +5408,16 @@
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
             <a:latin typeface="+mj-lt"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="+mj-lt"/>
@@ -4530,6 +5510,10 @@
             </a:rPr>
             <a:t>@ManyToMany</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4539,6 +5523,10 @@
             </a:rPr>
             <a:t>@ManyToOne</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4548,6 +5536,10 @@
             </a:rPr>
             <a:t>@OneToOne</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4588,27 +5580,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Hình ảnh 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6935C96-CDB2-4A28-85F1-2AAB645E87A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Hình ảnh 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6076950" y="419100"/>
-          <a:ext cx="3980952" cy="3285714"/>
+          <a:off x="6918325" y="361950"/>
+          <a:ext cx="4552950" cy="2799715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4620,12 +5606,3092 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="161925"/>
+          <a:ext cx="5543550" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Theo mặc định Jhipster sẽ sử dụng JpaRepository để thao tác với database, các Repository interface sẽ được đặt trong package </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ropository.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>JpaRepository cung cấp những phương thức có sẵn như: findAll, findOne, save, delete... để tương tác với database mà không cần viết câu lệnh SQL. Nhưng trong một số trường hợp sử dụng các phương thức được cung cấp sẵn này sẽ không tối ưu (Ví dụ chỉ select một vài field trong table) nên không được lạm dụng các phương thức này.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Trong những trường hợp như vậy chúng ta nên sử dụng native-query và result-set-mapping để thực hiện lệnh SQL và cast dữ liệu lấy được sang DTO class.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="161925"/>
+          <a:ext cx="4658360" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2286000"/>
+          <a:ext cx="5543550" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Repository phải được đặt tên có hậu tố Repository và extends JpaRepository interface.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Hình ảnh bên phải là ví dụ cho một UserRepository đại diện cho một DAO có nhiệm vụ tương tác, truy xuất data từ database cho entity User.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ngoài các phương thức được kế thừa sẵn từ JpaRepository, jhipster cũng định nghĩa thêm một vài phương thức tương tác với database bằng Query methods, tức có nghĩa câu lệnh sql sẽ ánh xạ thông qua tên phương thức.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ví dụ: phương thức findOneByLogin sẽ được hiểu có câu lệnh sql là: “SELECT * FROM user WHERE login = :login”.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="5095875"/>
+          <a:ext cx="5562600" cy="1305560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ngoài các phương thức có sẵn hoặc Query method, chúng ta còn có thể sử dụng native query để tương tác với database.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chú ý: tên file xml phải có hậu tố là sql.xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ví dụ: user-sql.xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600710</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="10058400"/>
+          <a:ext cx="4048760" cy="1477010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="9658350"/>
+          <a:ext cx="5505450" cy="314960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thêm thuộc tính jpa.mapping-resources trong file resource/config/application-dev(prod).xml</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="6515100"/>
+          <a:ext cx="5572125" cy="325755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tạo một file user-sql.xml trong thư mục resource/sql.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257810</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="6915150"/>
+          <a:ext cx="7820660" cy="2639060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Text Box 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="11620500"/>
+          <a:ext cx="5505450" cy="314960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tạo class DTO trong package </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>service.dto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> để hứng dữ liệu được lấy từ database. </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286385</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="12011025"/>
+          <a:ext cx="3058160" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Text Box 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="16230600"/>
+          <a:ext cx="5505450" cy="314960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>rong UserRepository tạo một phương thức để xử lý.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="17726025"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="17078325"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676910</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="16640175"/>
+          <a:ext cx="4144010" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="5038725" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Triển khai cơ chế JWT:</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="542925"/>
+          <a:ext cx="2533650" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2647950"/>
+          <a:ext cx="4953000" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Các class cần chú ý: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>JWTConfigurer, JWTFilter, TokenProvider, DomainUserDetailsService.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="3762375"/>
+          <a:ext cx="6144260" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="5943600"/>
+          <a:ext cx="5486400" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10439400"/>
+          <a:ext cx="6525260" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="14182725"/>
+          <a:ext cx="6534150" cy="505460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Kiểm tra header của các request đến có chứa JWT token hay không, nếu có thì sẽ kiểm tra token có hợp lệ hay không, nếu hợp lệ thì sẽ get thông tin authentication từ token và set thông tin đó vào security context.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15249525"/>
+          <a:ext cx="6534150" cy="344170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Cung cấp các phương thức tạo, validate token </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16097250"/>
+          <a:ext cx="6534150" cy="838835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Service phải được đặt name Bean là “userDetailsService” và implement UserDetailsService interface.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Service này cung cấp cho spring security cách thức get thông tin xác thực của user thông qua override lại phương thức loadUserByUsername.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17049750"/>
+          <a:ext cx="7573010" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="21316950"/>
+          <a:ext cx="6153150" cy="3515360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Text Box 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="24955500"/>
+          <a:ext cx="6143625" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thông tin username và password user đăng nhập sẽ được AuthenticationManager xác thực, nếu thông tin đăng nhập sai thì sẽ ném AuthenticateException. </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ngược lại thông tin sẽ được set vào SecurityContext và tạo một token mới cho user đó. </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="609600"/>
+          <a:ext cx="5133975" cy="1561465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhằm đơn giản hóa nên chỉ sử dụng hai phương thức GET và POST.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GET cho các tác vụ select hoặc delete.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>POST cho các tác vụ insert hoặc update.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Các RestController class được đặt trong web.rest package.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="2266950"/>
+          <a:ext cx="5133975" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Kết quả trả về của một controller nếu success sẽ là đối tượng ResponseEntity.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>org.springframework.http.ResponseEntity.ResponseEntity&lt;&gt;(@Nullable JWTToken body, @Nullable MultiValueMap&lt;String, String&gt; headers, HttpStatus status)</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3476625"/>
+          <a:ext cx="5153025" cy="1494790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Để thuận tiện cho việc ghi log bằng AOP mỗi controller phải có tiền tố là </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>excute”</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ví dụ:</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping(“/login”)</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>@Timed </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>public ResponseEntity&lt;?&gt; excuteLogin(@Valid @RequestBody LoginDto request) {}</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="5715000"/>
+          <a:ext cx="5114925" cy="3616960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Đảm nhiệm handle các exception từ các RestController ném ra.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Controller Advice được jhipster triển khai thông qua ExceptionTranslator class được đặt tại web.rest.errors package.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thông qua việc triển khai </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>org.zalando.problem.spring.web.advice.ProblemHandling</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> interface, cung cấp  một số phương thức xử lý exception thường gặp như: </a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>handleMethodArgumentNotValid</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: xử lý exception invalid.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>handleRequestMethodNotSupportedException</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: xử lý exception method not allowed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>handleAuthentication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: xử lý authentication exception.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Để custom các phương thức đó ta chỉ cần Override lại.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ngoài ra chúng ta cũng có thể định nghĩa thêm các phương thức handle các exception custom.</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="9629775"/>
+          <a:ext cx="4629150" cy="2143760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="409575"/>
+          <a:ext cx="2543810" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="4048125"/>
+          <a:ext cx="5401310" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9182100"/>
+          <a:ext cx="4601210" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12839700"/>
+          <a:ext cx="4552950" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>       “_status”: 404,</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>       “_type”: “Not found”,</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>       “_message”: “Resource Not Found”</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -4663,7 +8729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4696,26 +8762,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4748,23 +8797,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4935,784 +8967,1062 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D8:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.14166666666667" style="6"/>
+    <col min="3" max="3" width="12.5666666666667" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.7083333333333" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.14166666666667" style="6"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
+    <row r="8" spans="4:4">
+      <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
+    <row r="9" spans="4:4">
+      <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
+    <row r="10" spans="4:4">
+      <c r="D10" s="31"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="1" t="s">
+    <row r="41" spans="12:12">
+      <c r="L41" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="3"/>
+    <row r="65" spans="5:5">
+      <c r="E65" s="32"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="3"/>
+    <row r="74" spans="5:5">
+      <c r="E74" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239FEA42-BBF0-4A54-89C4-F1224B21729C}">
-  <dimension ref="B9:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="6"/>
+    <col min="2" max="2" width="8.28333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5666666666667" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23" style="6" customWidth="1"/>
+    <col min="6" max="7" width="14.5666666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.2833333333333" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.14166666666667" style="6"/>
+    <col min="10" max="10" width="15.1416666666667" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.7083333333333" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.14166666666667" style="6"/>
+    <col min="13" max="13" width="13.5666666666667" style="6" customWidth="1"/>
+    <col min="14" max="14" width="25.1416666666667" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.14166666666667" style="6"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>68</v>
-      </c>
+    <row r="2" spans="2:14">
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="M2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="30"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>69</v>
+    <row r="3" spans="2:14">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" ht="15.75" spans="2:14">
+      <c r="B4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="26"/>
+      <c r="J4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="M5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="20" t="str">
+        <f>VLOOKUP(D6,$M$5:$N$11,2,0)</f>
+        <v>Internal Server Exception</v>
+      </c>
+      <c r="F6" s="10">
+        <v>500</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="20"/>
+      <c r="J6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="M6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f t="shared" ref="E7:E10" si="0">VLOOKUP(D7,$M$5:$N$11,2,0)</f>
+        <v>Internal Server Exception</v>
+      </c>
+      <c r="F7" s="10">
+        <v>500</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Internal Server Exception</v>
+      </c>
+      <c r="F8" s="10">
+        <v>500</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="20"/>
+      <c r="J8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Internal Server Exception</v>
+      </c>
+      <c r="F9" s="10">
+        <v>500</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="M9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Internal Server Exception</v>
+      </c>
+      <c r="F10" s="10">
+        <v>500</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="M10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:14">
+      <c r="B11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="J11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="M11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f>VLOOKUP(D12,$M$5:$N$11,2,0)</f>
+        <v>Not Found</v>
+      </c>
+      <c r="F12" s="10">
+        <v>404</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="20" t="str">
+        <f t="shared" ref="E13:E16" si="1">VLOOKUP(D13,$M$5:$N$11,2,0)</f>
+        <v>Method Not Allowed</v>
+      </c>
+      <c r="F13" s="10">
+        <v>405</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Field errors</v>
+      </c>
+      <c r="F14" s="10">
+        <v>400</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Bad credentials</v>
+      </c>
+      <c r="F15" s="10">
+        <v>401</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="10">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Unauthorized</v>
+      </c>
+      <c r="F16" s="10">
+        <v>401</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" ht="15.75" spans="2:8">
+      <c r="B17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <f>VLOOKUP(D18,$M$5:$N$11,2,0)</f>
+        <v>Bad request</v>
+      </c>
+      <c r="F18" s="10">
+        <v>400</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="20" t="str">
+        <f>VLOOKUP(D19,$M$5:$N$11,2,0)</f>
+        <v>Bad request</v>
+      </c>
+      <c r="F19" s="10">
+        <v>400</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="20" t="str">
+        <f>VLOOKUP(D20,$M$5:$N$11,2,0)</f>
+        <v>Bad request</v>
+      </c>
+      <c r="F20" s="10">
+        <v>400</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="10">
+        <v>4</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="20" t="str">
+        <f>VLOOKUP(D21,$M$5:$N$11,2,0)</f>
+        <v>Bad request</v>
+      </c>
+      <c r="F21" s="10">
+        <v>400</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="J2:K3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:L12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="3.5703125" style="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="6"/>
+    <col min="2" max="2" width="10.2833333333333" style="6" customWidth="1"/>
+    <col min="3" max="6" width="9.14166666666667" style="6"/>
+    <col min="7" max="7" width="9.85833333333333" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.8583333333333" style="6" customWidth="1"/>
+    <col min="9" max="10" width="9.14166666666667" style="6"/>
+    <col min="11" max="11" width="15.8583333333333" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.8583333333333" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="6"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" ht="21.75" spans="2:12">
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="J3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10">
+        <v>200</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="F4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="J4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="18">
+        <v>400</v>
+      </c>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12">
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="10:12">
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="10:12">
+      <c r="J11" s="19"/>
+      <c r="K11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="10:12">
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B9:B27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="11" width="9.14166666666667" style="6"/>
+    <col min="12" max="12" width="7.56666666666667" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:2">
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:N21"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.56666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="3.56666666666667" style="6"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="J2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="M2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>VLOOKUP(D6, $M$5:$N$11, 2, 0)</f>
-        <v>Internal Server Exception</v>
-      </c>
-      <c r="F6" s="6">
-        <v>500</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" ref="E7:E10" si="0">VLOOKUP(D7, $M$5:$N$11, 2, 0)</f>
-        <v>Internal Server Exception</v>
-      </c>
-      <c r="F7" s="6">
-        <v>500</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Internal Server Exception</v>
-      </c>
-      <c r="F8" s="6">
-        <v>500</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Internal Server Exception</v>
-      </c>
-      <c r="F9" s="6">
-        <v>500</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Internal Server Exception</v>
-      </c>
-      <c r="F10" s="6">
-        <v>500</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="M10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="J11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f>VLOOKUP(D12, $M$5:$N$11, 2, 0)</f>
-        <v>Not Found</v>
-      </c>
-      <c r="F12" s="6">
-        <v>404</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" ref="E13:E16" si="1">VLOOKUP(D13, $M$5:$N$11, 2, 0)</f>
-        <v>Method Not Allowed</v>
-      </c>
-      <c r="F13" s="6">
-        <v>405</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Field errors</v>
-      </c>
-      <c r="F14" s="6">
-        <v>400</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Bad credentials</v>
-      </c>
-      <c r="F15" s="6">
-        <v>401</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Unauthorized</v>
-      </c>
-      <c r="F16" s="6">
-        <v>401</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6">
-        <v>400</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6">
-        <v>400</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6">
-        <v>400</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6">
-        <v>400</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="J2:K3"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038B97C2-9486-4640-B294-68D291CA98E2}">
-  <dimension ref="B3:L12"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B20:L109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" spans="2:2">
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="3"/>
+      <c r="L47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B7:E132"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="L151" sqref="L151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="2:2">
+      <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" spans="2:2">
+      <c r="B98" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="2" ht="21.75" spans="2:2">
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="21.75" spans="2:2">
+      <c r="B33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="F3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="J3" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+    <row r="2" ht="15.75" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="19">
-        <v>200</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="F4" s="28" t="s">
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="J4" s="28" t="s">
+    </row>
+    <row r="22" ht="15.75" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="4">
-        <v>400</v>
-      </c>
-      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>53</v>
+    <row r="51" ht="15.75" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>58</v>
+    <row r="54" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="22"/>
-      <c r="G8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>60</v>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="22"/>
-      <c r="G9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>60</v>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J10" s="22"/>
-      <c r="K10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J11" s="22"/>
-      <c r="K11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J12" s="22"/>
-      <c r="K12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>60</v>
+    <row r="88" ht="18.75" spans="2:2">
+      <c r="B88" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F5:F6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jhipster Struct.xlsx
+++ b/Jhipster Struct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8505" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="19890" windowHeight="8505" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Structs" sheetId="1" r:id="rId1"/>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Triển khai tại ErrorAttributeConfiguration class được đặt trong </t>
     </r>
     <r>
@@ -332,12 +338,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,12 +379,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,21 +387,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -422,14 +408,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,16 +445,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,23 +483,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -498,15 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,39 +513,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,10 +537,18 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -636,7 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +692,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,37 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,37 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,6 +874,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -911,17 +898,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,36 +924,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -999,230 +962,237 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4511,7 +4481,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="212121"/>
               </a:solidFill>
@@ -4519,7 +4489,7 @@
             </a:rPr>
             <a:t>web app </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="212121"/>
             </a:solidFill>
@@ -4739,13 +4709,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4755,7 +4725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="696595" y="161925"/>
-          <a:ext cx="7480300" cy="847725"/>
+          <a:ext cx="7480300" cy="1075690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5244,13 +5214,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:rowOff>75565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5260,7 +5230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="648335" y="399415"/>
-          <a:ext cx="6250940" cy="3382010"/>
+          <a:ext cx="6250940" cy="4467860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5664,27 +5634,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Theo mặc định Jhipster sẽ sử dụng JpaRepository để thao tác với database, các Repository interface sẽ được đặt trong package </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>ropository.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5692,20 +5662,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>JpaRepository cung cấp những phương thức có sẵn như: findAll, findOne, save, delete... để tương tác với database mà không cần viết câu lệnh SQL. Nhưng trong một số trường hợp sử dụng các phương thức được cung cấp sẵn này sẽ không tối ưu (Ví dụ chỉ select một vài field trong table) nên không được lạm dụng các phương thức này.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5713,13 +5683,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Trong những trường hợp như vậy chúng ta nên sử dụng native-query và result-set-mapping để thực hiện lệnh SQL và cast dữ liệu lấy được sang DTO class.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5826,20 +5796,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Repository phải được đặt tên có hậu tố Repository và extends JpaRepository interface.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5847,20 +5817,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Hình ảnh bên phải là ví dụ cho một UserRepository đại diện cho một DAO có nhiệm vụ tương tác, truy xuất data từ database cho entity User.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5868,20 +5838,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Ngoài các phương thức được kế thừa sẵn từ JpaRepository, jhipster cũng định nghĩa thêm một vài phương thức tương tác với database bằng Query methods, tức có nghĩa câu lệnh sql sẽ ánh xạ thông qua tên phương thức.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5889,27 +5859,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Ví dụ: phương thức findOneByLogin sẽ được hiểu có câu lệnh sql là: “SELECT * FROM user WHERE login = :login”.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5974,20 +5944,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Ngoài các phương thức có sẵn hoặc Query method, chúng ta còn có thể sử dụng native query để tương tác với database.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -5995,20 +5965,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Chú ý: tên file xml phải có hậu tố là sql.xml</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -6016,13 +5986,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Ví dụ: user-sql.xml</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -6200,20 +6170,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Tạo một file user-sql.xml trong thư mục resource/sql.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -6419,27 +6389,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Tạo class DTO trong package </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>service.dto</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> để hứng dữ liệu được lấy từ database. </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -6649,16 +6619,9 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>T</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>rong UserRepository tạo một phương thức để xử lý.</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:t>Trong UserRepository tạo một phương thức để xử lý.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -6852,34 +6815,34 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Triển khai cơ chế JWT:</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -6986,27 +6949,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Các class cần chú ý: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>JWTConfigurer, JWTFilter, TokenProvider, DomainUserDetailsService.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7197,13 +7160,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Kiểm tra header của các request đến có chứa JWT token hay không, nếu có thì sẽ kiểm tra token có hợp lệ hay không, nếu hợp lệ thì sẽ get thông tin authentication từ token và set thông tin đó vào security context.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7367,13 +7330,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Cung cấp các phương thức tạo, validate token </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7537,20 +7500,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Service phải được đặt name Bean là “userDetailsService” và implement UserDetailsService interface.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7558,13 +7521,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Service này cung cấp cho spring security cách thức get thông tin xác thực của user thông qua override lại phương thức loadUserByUsername.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7713,20 +7676,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Thông tin username và password user đăng nhập sẽ được AuthenticationManager xác thực, nếu thông tin đăng nhập sai thì sẽ ném AuthenticateException. </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7734,13 +7697,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Ngược lại thông tin sẽ được set vào SecurityContext và tạo một token mới cho user đó. </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7810,20 +7773,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Nhằm đơn giản hóa nên chỉ sử dụng hai phương thức GET và POST.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7831,20 +7794,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>GET cho các tác vụ select hoặc delete.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7852,20 +7815,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>POST cho các tác vụ insert hoặc update.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7873,13 +7836,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Các RestController class được đặt trong web.rest package.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7946,20 +7909,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Kết quả trả về của một controller nếu success sẽ là đối tượng ResponseEntity.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -7967,27 +7930,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>org.springframework.http.ResponseEntity.ResponseEntity&lt;&gt;(@Nullable JWTToken body, @Nullable MultiValueMap&lt;String, String&gt; headers, HttpStatus status)</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8052,34 +8015,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Để thuận tiện cho việc ghi log bằng AOP mỗi controller phải có tiền tố là </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>“</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>excute”</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>“excute”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8087,13 +8043,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Ví dụ:</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8101,13 +8057,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>@GetMapping(“/login”)</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8115,13 +8071,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>@Timed </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8129,13 +8085,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>public ResponseEntity&lt;?&gt; excuteLogin(@Valid @RequestBody LoginDto request) {}</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8154,8 +8110,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8165,7 +8121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="695325" y="5715000"/>
-          <a:ext cx="5114925" cy="3616960"/>
+          <a:ext cx="5114925" cy="3855085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8200,20 +8156,55 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Đảm nhiệm handle các exception từ các RestController ném ra.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Đảm nhiệm handle các exception từ các RestController ném ra.</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+            <a:t>Các class exception và custom exception được đặt trong </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>web.rest.errors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> package.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8221,20 +8212,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Controller Advice được jhipster triển khai thông qua ExceptionTranslator class được đặt tại web.rest.errors package.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8242,41 +8233,41 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Thông qua việc triển khai </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>org.zalando.problem.spring.web.advice.ProblemHandling</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> interface, cung cấp  một số phương thức xử lý exception thường gặp như: </a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8284,20 +8275,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>handleMethodArgumentNotValid</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>: xử lý exception invalid.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8305,20 +8296,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>handleRequestMethodNotSupportedException</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>: xử lý exception method not allowed.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8326,20 +8317,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>handleAuthentication</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>: xử lý authentication exception.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8347,20 +8338,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>...</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8368,20 +8359,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Để custom các phương thức đó ta chỉ cần Override lại.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8389,20 +8380,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Ngoài ra chúng ta cũng có thể định nghĩa thêm các phương thức handle các exception custom.</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -8642,42 +8633,42 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>{</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>       “_status”: 404,</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>       “_type”: “Not found”,</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>       “_message”: “Resource Not Found”</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8975,38 +8966,38 @@
   <sheetPr/>
   <dimension ref="D8:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.14166666666667" style="6"/>
-    <col min="3" max="3" width="12.5666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.7083333333333" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.14166666666667" style="6"/>
+    <col min="1" max="1" width="9.14166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.14166666666667" style="1"/>
+    <col min="3" max="3" width="12.5666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7083333333333" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="4:4">
-      <c r="D8" s="31"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="31"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="31"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="41" spans="12:12">
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="32"/>
+      <c r="E65" s="30"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="32"/>
+      <c r="E74" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9027,471 +9018,471 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="6"/>
-    <col min="2" max="2" width="8.28333333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.5666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23" style="6" customWidth="1"/>
-    <col min="6" max="7" width="14.5666666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.2833333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.14166666666667" style="6"/>
-    <col min="10" max="10" width="15.1416666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.7083333333333" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.14166666666667" style="6"/>
-    <col min="13" max="13" width="13.5666666666667" style="6" customWidth="1"/>
-    <col min="14" max="14" width="25.1416666666667" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.14166666666667" style="6"/>
+    <col min="1" max="1" width="9.14166666666667" style="1"/>
+    <col min="2" max="2" width="8.28333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.14166666666667" style="1"/>
+    <col min="10" max="10" width="15.1416666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7083333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.14166666666667" style="1"/>
+    <col min="13" max="13" width="13.5666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1416666666667" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="27" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="J2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="M2" s="29" t="s">
+      <c r="K2" s="25"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" ht="15.75" spans="2:14">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="28" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="24"/>
+      <c r="J4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="M5" s="20" t="s">
+      <c r="K5" s="18"/>
+      <c r="M5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E6" s="18" t="str">
         <f>VLOOKUP(D6,$M$5:$N$11,2,0)</f>
         <v>Internal Server Exception</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>500</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="18"/>
+      <c r="M6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="20" t="str">
+      <c r="E7" s="18" t="str">
         <f t="shared" ref="E7:E10" si="0">VLOOKUP(D7,$M$5:$N$11,2,0)</f>
         <v>Internal Server Exception</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>500</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="20"/>
-      <c r="J7" s="20" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="M7" s="20" t="s">
+      <c r="K7" s="18"/>
+      <c r="M7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="20" t="str">
+      <c r="E8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Internal Server Exception</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>500</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="20"/>
-      <c r="J8" s="20" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="M8" s="20" t="s">
+      <c r="K8" s="18"/>
+      <c r="M8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Internal Server Exception</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>500</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="M9" s="20" t="s">
+      <c r="K9" s="18"/>
+      <c r="M9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="20" t="str">
+      <c r="E10" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Internal Server Exception</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>500</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="20"/>
-      <c r="J10" s="20" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="18"/>
+      <c r="J10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="M10" s="20" t="s">
+      <c r="K10" s="18"/>
+      <c r="M10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:14">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="J11" s="20" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="J11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="M11" s="20" t="s">
+      <c r="K11" s="18"/>
+      <c r="M11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="20" t="str">
+      <c r="E12" s="18" t="str">
         <f>VLOOKUP(D12,$M$5:$N$11,2,0)</f>
         <v>Not Found</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>404</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="20" t="str">
+      <c r="E13" s="18" t="str">
         <f t="shared" ref="E13:E16" si="1">VLOOKUP(D13,$M$5:$N$11,2,0)</f>
         <v>Method Not Allowed</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>405</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="20" t="str">
+      <c r="E14" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Field errors</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>400</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Bad credentials</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>401</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="20" t="str">
+      <c r="E16" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Unauthorized</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>401</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" ht="15.75" spans="2:8">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="20" t="str">
+      <c r="E18" s="18" t="str">
         <f>VLOOKUP(D18,$M$5:$N$11,2,0)</f>
         <v>Bad request</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>400</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="20" t="str">
+      <c r="E19" s="18" t="str">
         <f>VLOOKUP(D19,$M$5:$N$11,2,0)</f>
         <v>Bad request</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>400</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>3</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="20" t="str">
+      <c r="E20" s="18" t="str">
         <f>VLOOKUP(D20,$M$5:$N$11,2,0)</f>
         <v>Bad request</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>400</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="20" t="str">
+      <c r="E21" s="18" t="str">
         <f>VLOOKUP(D21,$M$5:$N$11,2,0)</f>
         <v>Bad request</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>400</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
@@ -9525,182 +9516,182 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="6"/>
-    <col min="2" max="2" width="10.2833333333333" style="6" customWidth="1"/>
-    <col min="3" max="6" width="9.14166666666667" style="6"/>
-    <col min="7" max="7" width="9.85833333333333" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.8583333333333" style="6" customWidth="1"/>
-    <col min="9" max="10" width="9.14166666666667" style="6"/>
-    <col min="11" max="11" width="15.8583333333333" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.8583333333333" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.14166666666667" style="6"/>
+    <col min="1" max="1" width="9.14166666666667" style="1"/>
+    <col min="2" max="2" width="10.2833333333333" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.14166666666667" style="1"/>
+    <col min="7" max="7" width="9.85833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8583333333333" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.14166666666667" style="1"/>
+    <col min="11" max="11" width="15.8583333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.8583333333333" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="21.75" spans="2:12">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>200</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="8"/>
+      <c r="F4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="H4" s="16"/>
+      <c r="J4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>400</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="6:12">
-      <c r="F8" s="19"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="6:12">
-      <c r="F9" s="19"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="10:12">
-      <c r="J10" s="19"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="10:12">
-      <c r="J11" s="19"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="10:12">
-      <c r="J12" s="19"/>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="17"/>
+      <c r="K12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -9728,24 +9719,24 @@
   <sheetPr/>
   <dimension ref="B9:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="11" width="9.14166666666667" style="6"/>
-    <col min="12" max="12" width="7.56666666666667" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.14166666666667" style="6"/>
+    <col min="1" max="11" width="9.14166666666667" style="1"/>
+    <col min="12" max="12" width="7.56666666666667" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9761,13 +9752,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX13"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.56666666666667" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="3.56666666666667" style="6"/>
+    <col min="1" max="16384" width="3.56666666666667" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9781,8 +9772,8 @@
   <sheetPr/>
   <dimension ref="B20:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView showGridLines="0" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -9793,7 +9784,7 @@
       </c>
     </row>
     <row r="30" ht="18.75" spans="2:2">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -9803,7 +9794,7 @@
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="3"/>
+      <c r="B47" s="1"/>
       <c r="L47" t="s">
         <v>48</v>
       </c>
@@ -9840,8 +9831,8 @@
   <sheetPr/>
   <dimension ref="B7:E132"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="L151" sqref="L151"/>
+    <sheetView showGridLines="0" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -9862,7 +9853,7 @@
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9918,19 +9909,19 @@
   <sheetPr/>
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" ht="21.75" spans="2:2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" ht="21.75" spans="2:2">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9951,8 +9942,8 @@
   <sheetPr/>
   <dimension ref="B2:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView showGridLines="0" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -10001,7 +9992,7 @@
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -10016,7 +10007,7 @@
       </c>
     </row>
     <row r="88" ht="18.75" spans="2:2">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
     </row>
